--- a/hedges d data.xlsx
+++ b/hedges d data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ffion\OneDrive - University of Leeds\Documents\MSc Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ffion\OneDrive - University of Leeds\Documents\MSc Thesis\Appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C90A8FC-7A94-4CE4-A5AC-3BC26EB8135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8AB59-A9A4-4AC2-B4A9-25BFEE50FE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E055F1DF-F182-4328-95A6-C967F3CAF619}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{E055F1DF-F182-4328-95A6-C967F3CAF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C427DD-6EFC-4C99-97EB-0E39D7B49AAB}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,17 +527,17 @@
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -554,17 +553,17 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -572,7 +571,7 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -598,6 +597,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC3E8D9E40087B4C88BD13B808723E8C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="114071191377bfa4071ce90ed5ad18c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2465a79e-a4eb-41f4-aa92-07c007c6f5c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f4442f978e0f4607bf84e03bbee9c0a" ns3:_="">
     <xsd:import namespace="2465a79e-a4eb-41f4-aa92-07c007c6f5c4"/>
@@ -779,15 +787,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -797,6 +796,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14B7C0C-7A55-40F6-85AA-709D9C66E06E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBFDBBA9-C709-4E9D-ABA2-2B1DC1B69702}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -814,14 +821,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14B7C0C-7A55-40F6-85AA-709D9C66E06E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{497118CA-C0D6-4D7A-ADA6-1F0FB18CA626}">
   <ds:schemaRefs>
